--- a/data_xlsx/即期汇率_美元兑人民币.xlsx
+++ b/data_xlsx/即期汇率_美元兑人民币.xlsx
@@ -45866,8 +45866,88 @@
         <v>7.246499999999999</v>
       </c>
     </row>
+    <row r="5724">
+      <c r="A5724" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B5724" s="2" t="n">
+        <v>7.2336</v>
+      </c>
+    </row>
     <row r="5725">
-      <c r="A5725" s="3" t="inlineStr">
+      <c r="A5725" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B5725" s="2" t="n">
+        <v>7.2331</v>
+      </c>
+    </row>
+    <row r="5726">
+      <c r="A5726" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B5726" s="2" t="n">
+        <v>7.198499999999999</v>
+      </c>
+    </row>
+    <row r="5727">
+      <c r="A5727" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B5727" s="2" t="n">
+        <v>7.189900000000001</v>
+      </c>
+    </row>
+    <row r="5728">
+      <c r="A5728" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B5728" s="2" t="n">
+        <v>7.1602</v>
+      </c>
+    </row>
+    <row r="5729">
+      <c r="A5729" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B5729" s="2" t="n">
+        <v>7.132499999999999</v>
+      </c>
+    </row>
+    <row r="5730">
+      <c r="A5730" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B5730" s="2" t="n">
+        <v>7.1702</v>
+      </c>
+    </row>
+    <row r="5731">
+      <c r="A5731" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B5731" s="2" t="n">
+        <v>7.1716999999999995</v>
+      </c>
+    </row>
+    <row r="5732">
+      <c r="A5732" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B5732" s="2" t="n">
+        <v>7.2197</v>
+      </c>
+    </row>
+    <row r="5733">
+      <c r="A5733" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B5733" s="2" t="n">
+        <v>7.181100000000001</v>
+      </c>
+    </row>
+    <row r="5735">
+      <c r="A5735" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
